--- a/Equipe206.xlsx
+++ b/Equipe206.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24004"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{FA34F46B-4FBD-4D45-A4CE-032486D68F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7E25E88C-2C2F-4F88-961C-8EB615B9BAE9}"/>
+  <xr:revisionPtr revIDLastSave="296" documentId="13_ncr:1_{FA34F46B-4FBD-4D45-A4CE-032486D68F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A5B64DE1-E818-4B0B-AE14-3CA3D4EAE152}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="7" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="235">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -296,7 +296,10 @@
     <t>Qualité des classes</t>
   </si>
   <si>
-    <t>Nicolas Verbaere</t>
+    <t>SS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>La classe n'a qu'une responsabilitée et elle est non triviale.</t>
@@ -315,25 +318,31 @@
     <t>la foction setMax() de slidebar-line.component.ts et sidebar-pencil.component.ts</t>
   </si>
   <si>
+    <t>AerosolService, EllipseService, PolygonService setters inutiles</t>
+  </si>
+  <si>
     <t>La classe minimise l'accessibilité des membres (public/private/protected)</t>
   </si>
   <si>
     <t>Vos viewChilds sont pas private.</t>
   </si>
   <si>
+    <t>ColorHistoryComponent, ColorSliderComponent, RgbSelectorComponent (emitColor, isValidHexCode, ...etc)</t>
+  </si>
+  <si>
     <t>Les valeurs par défaut des attributs de la classe sont initialisés de manière consistante (soit dans le constructeur partout, soit à la définition)</t>
   </si>
   <si>
     <t>certains fichiers n'ont pas la meme regle, comme slidebar.component.ts, elipse-service.ts...</t>
   </si>
   <si>
+    <t>ResizerCommand et EditorComponent  DrawingComponent ExportDrawingComponent (init dans constructeur) et SidebarComponent (mixte) aussi ColorService le reste hors constructor.....</t>
+  </si>
+  <si>
     <t>Total de la catégorie</t>
   </si>
   <si>
     <t>Qualité des fonctions</t>
-  </si>
-  <si>
-    <t>NV</t>
   </si>
   <si>
     <t>Les noms des fonctions sont précis et décrivent les tâches voulues. 
@@ -343,17 +352,26 @@
     <t xml:space="preserve">Chaque fonction n'a qu'une seule utilité, elle ne peut pas être fragmentée en plusieurs fonctions et elle est facilement lisible. </t>
   </si>
   <si>
+    <t>resizeCanvas() de ResizerCanvas: devra etre fragmenter a la place de commentaires; ngAfterViewInit() de ResizerComponent et SelectionComponent; validateTag() de TagInputComponent et validateTitle de TitleInputComponent. saveDrawing() de SaveDrawingComponent, setResizerPosition() deResizerHandlerService...etc</t>
+  </si>
+  <si>
     <t>Les fonctions minimisent les paramètres en entrée (pas plus de trois).
 Utilisation d'interfaces ou de classe pour des paramètres pouvant être regroupé logiquement.</t>
   </si>
   <si>
+    <t>drawTypeEllipse() de EllipseCommand, drawTypePolygone() de PolygonCommand, drawTypeRectangle() de RectangleCommand; computeSquareCoords() de ToolSelectionService</t>
+  </si>
+  <si>
     <t>Les fonctions sont pures lorsque possible. Les effets secondaires sont minimisés</t>
   </si>
   <si>
     <t>Tous les paramètres de fonction sont utilisés</t>
   </si>
   <si>
-    <t>la foction setMax() de slidebar-line.component.ts, la fonction handleError de index.service.ts</t>
+    <t>la foction setMax() de slidebar-line.component.ts, la fonction handleError de index.service.ts(rectifié), je rajoute un demi-points.</t>
+  </si>
+  <si>
+    <t>expandCanvas() de ResizerComponent. clipPreview, zoomPreview, centerPixelStroke, previewStroke dans SidebarPipetteComponent;</t>
   </si>
   <si>
     <t>Exceptions</t>
@@ -377,6 +395,9 @@
     <t>Certaines constantes, sont dans les fonctions, d'autres dans des fichiers.</t>
   </si>
   <si>
+    <t>sidebarToolButtons de SidebarComponent: le array devra etre dans le fichier de constantes; meme chose pour les requirements dans TagInputComponent mm chose pour TitleInputComponent</t>
+  </si>
+  <si>
     <t>Les constantes doivent être utilisées seulement dans un contexte lié à la logique d'affaire. (mauvais exemple: const DEUX = 2, bon exemple : const WAIT_TIME = 5000)</t>
   </si>
   <si>
@@ -389,29 +410,41 @@
     <t>les variables offset1, offset2, offset3 de drawSlider() de...(color-slider.component.ts)</t>
   </si>
   <si>
+    <t>les variables offset1, offset2, offset3 de drawSlider() de...(color-slider.component.ts) =&gt; de sprint 1</t>
+  </si>
+  <si>
     <t>Expression Booléennes</t>
   </si>
   <si>
     <t>Les expression booléennes ne sont pas comparées à true ou false</t>
   </si>
   <si>
+    <t>L42-43 PipetteService</t>
+  </si>
+  <si>
     <t>Minimiser la logique booléenne négative (ex: éviter "if (!notFound(...))")</t>
   </si>
   <si>
     <t>Utilisation des opérateurs ternaires dans les bon scénario</t>
+  </si>
+  <si>
+    <t>L53-57 ColorHistoryComponent</t>
   </si>
   <si>
     <t>Pas d'expressions booléennes complexes. 
 Des prédicats sont utilisés pour simplifier les conditions complexes</t>
   </si>
   <si>
-    <t>setJunctionRadius() de line-service.ts(le if est trop long/peu lisible)</t>
+    <t>setJunctionRadius() de line-service.ts(le if est trop long/peu lisible). Ici je parlais du boolean, vaut mieux creer deux predicats différents avec des noms explicites au lieu d avoir des conditions booleenes qui s etend sur plusieurs caractere.</t>
+  </si>
+  <si>
+    <t>L46 ExportDrawingComponent; setJunctionRadius() de line-service.ts(le if est trop long/peu lisible) de sprint 1</t>
   </si>
   <si>
     <t>Qualité Générale</t>
   </si>
   <si>
-    <t>AB</t>
+    <t>NV</t>
   </si>
   <si>
     <t>Le projet suit une arborescence de fichier uniforme et stucturée (regroupement par objectifs des fichiers et par module). Les fichiers et dossiers doivent respecter le kebab-case.</t>
@@ -436,6 +469,9 @@
   </si>
   <si>
     <t>Il n'y a pas de duplication de code.</t>
+  </si>
+  <si>
+    <t>L73-90  de SelectionComponent</t>
   </si>
   <si>
     <t>Aucune erreur TSLint non justifiée. (Des commentaires TODO sont acceptables). (25% de la note sera retirée par type d'erreur présente)
@@ -446,6 +482,9 @@
   </si>
   <si>
     <t>ellipse-service.ts, rectangle.service.ts, NV:color-slider.component.ts(onMousMove()), rgb-selector.component.ts...</t>
+  </si>
+  <si>
+    <t>ngOnChanges de drawing.component.ts. onCtrlZKeyDown()  Open... de editor.component.ts, autres...</t>
   </si>
   <si>
     <t>Le logiciel a une performance acceptable.</t>
@@ -485,9 +524,6 @@
     <t>Note assurance qualité</t>
   </si>
   <si>
-    <t>SS</t>
-  </si>
-  <si>
     <t>Fonctionnalité</t>
   </si>
   <si>
@@ -521,7 +557,7 @@
     <t>Créer un nouveau dessin</t>
   </si>
   <si>
-    <t>1. Quand je fais un clic avec un rectangle/ellipse, je recois un avertissement mais le dessin est vide 2. Requis non respecté La taille initiale de la surface de dessin est la moité de la zone de travail au moment de la création. 3. Requis non respecté La taille minimale de la surface de dessin est de 250 x 250 pixels.</t>
+    <t xml:space="preserve">1. Quand je fais un clic avec un rectangle/ellipse, je recois un avertissement mais le dessin est vide 2. Requis non respecté La taille initiale de la surface de dessin est la moité de la zone de travail au moment de la création. </t>
   </si>
   <si>
     <t>Outil-Efface</t>
@@ -557,37 +593,76 @@
     <t>Ne build pas</t>
   </si>
   <si>
+    <t>AB</t>
+  </si>
+  <si>
     <t>Outil - Aérosol</t>
   </si>
   <si>
+    <t>1.  Il est possible de définir le nombre d'émissions par seconde.</t>
+  </si>
+  <si>
     <t>Outil- Sélection par rectangle et ellipse</t>
   </si>
   <si>
+    <t>1.  Le rectangle et l'ellipse de sélection résultent en une boîte englobante seulement à la fin du glisser-déposer.
+2. Bug: escape ne marche pas après déplacement</t>
+  </si>
+  <si>
     <t>Outil-Polygone</t>
   </si>
   <si>
+    <t xml:space="preserve">1.  Si le pointeur de la souris quite la surface de dessin, le périmètre continue d’être affiché au complet.
+2. Bug: lorsqu'on quitte la zone de dessin, la création s'arrête
+</t>
+  </si>
+  <si>
     <t>Outi-Pipette</t>
   </si>
   <si>
+    <t>1. Bug: la pipette ne marche pas sur les pixels blancs</t>
+  </si>
+  <si>
     <t>Exporter le dessin</t>
   </si>
   <si>
+    <t>1. Bug: l'image est déformée dans l'aperçu
+2. Bug: la transparence est noire en jpeg</t>
+  </si>
+  <si>
     <t>Déplacement d'une sélection</t>
   </si>
   <si>
+    <t>1. Bug: lorsque je bouge en diagonale avec les flèches et que je relâche la dernière flèche, le déplacement s'arrête
+2. Bug: lorsqu'on quitte la zone de dessin, la sélection s'arrête
+3. Bug: les touches de déplacement ne marchent qu'après avoir déplacé à l'aide de la souris</t>
+  </si>
+  <si>
     <t>Filtrage par étiquettes</t>
   </si>
   <si>
+    <t>1. Bug: ne trouve pas certaines étiquettes si elles ne sont pas présentes dans l'image courante
+2. Le filtrage par étiquette - Lorsque mutliples étiquettes sont sélectionnées pour filtrage, seulement les dessins sur le serveur qui contiennent au moins une des étiquettes doivent être visibles dans la liste (OU logique).</t>
+  </si>
+  <si>
     <t>Base de données</t>
   </si>
   <si>
     <t>Carrousel de dessins</t>
   </si>
   <si>
+    <t xml:space="preserve">1.  Il est possible d'ouvrir la fenêtre du carrousel avec le raccourci  CTRL + G.
+2.  Il est possible de faire défiler le carrousel en boucle avec les touches du clavier.
+</t>
+  </si>
+  <si>
     <t>Sauvegarder le dessin sur serveur</t>
   </si>
   <si>
     <t>Annuler-Refaire</t>
+  </si>
+  <si>
+    <t>1. Si l'action Annuler ou Refaire est indisponible, il doit être impossible de choisir respectivement l'action Annuler ou Refaire via la barre latérale.</t>
   </si>
   <si>
     <t>Anciennes fonctionnalités brisées</t>
@@ -699,7 +774,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -795,6 +870,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -2234,7 +2315,7 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="309">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2772,9 +2853,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2939,6 +3017,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2958,10 +3042,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="15" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2973,18 +3069,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3013,9 +3097,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3869,18 +3953,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="C2" s="285" t="s">
+      <c r="C2" s="286" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="285"/>
-      <c r="E2" s="286" t="s">
+      <c r="D2" s="286"/>
+      <c r="E2" s="287" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="286"/>
-      <c r="G2" s="287" t="s">
+      <c r="F2" s="287"/>
+      <c r="G2" s="288" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="287"/>
+      <c r="H2" s="288"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2"/>
@@ -4160,7 +4244,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="288" t="s">
+      <c r="G2" s="289" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4173,7 +4257,7 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="288"/>
+      <c r="G3" s="289"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="58" t="s">
@@ -4495,10 +4579,10 @@
       <c r="D27" s="162"/>
       <c r="E27" s="162"/>
       <c r="F27" s="162"/>
-      <c r="H27" s="289" t="s">
+      <c r="H27" s="290" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="289"/>
+      <c r="I27" s="290"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="52" t="s">
@@ -4851,7 +4935,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="288" t="s">
+      <c r="G2" s="289" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4864,7 +4948,7 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="288"/>
+      <c r="G3" s="289"/>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="58" t="s">
@@ -5238,10 +5322,10 @@
       <c r="D31" s="162"/>
       <c r="E31" s="162"/>
       <c r="F31" s="162"/>
-      <c r="H31" s="289" t="s">
+      <c r="H31" s="290" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="289"/>
+      <c r="I31" s="290"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="52" t="s">
@@ -5605,22 +5689,22 @@
       </c>
       <c r="B4" s="148">
         <f>(Fonctionnalités!E18)</f>
-        <v>0.8194787043022338</v>
+        <v>0.83090727573080525</v>
       </c>
       <c r="C4" s="149">
         <f>'Assurance Qualité'!B60</f>
-        <v>0.75249999999999995</v>
+        <v>0.77</v>
       </c>
       <c r="D4" s="149">
         <f>B4*0.6+C4*0.4 - 0.1*E4</f>
-        <v>0.79268722258134017</v>
+        <v>0.80654436543848318</v>
       </c>
       <c r="F4" s="150">
         <v>15</v>
       </c>
       <c r="G4" s="151">
         <f>D4*F4</f>
-        <v>11.890308338720102</v>
+        <v>12.098165481577247</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5629,22 +5713,22 @@
       </c>
       <c r="B5" s="153">
         <f>(Fonctionnalités!E35)</f>
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="C5" s="154">
         <f>'Assurance Qualité'!D60</f>
-        <v>0</v>
+        <v>0.66749999999999998</v>
       </c>
       <c r="D5" s="154">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="F5" s="150">
         <v>25</v>
       </c>
       <c r="G5" s="151">
         <f>D5*F5</f>
-        <v>0</v>
+        <v>18.375</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
@@ -5696,8 +5780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5705,20 +5789,22 @@
     <col min="1" max="1" width="68.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.7109375" style="1" customWidth="1"/>
     <col min="4" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="12" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="11" width="47.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="296" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="290"/>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="296"/>
       <c r="H1" s="161"/>
       <c r="I1" s="161"/>
     </row>
@@ -5751,31 +5837,31 @@
       <c r="I4" s="165"/>
     </row>
     <row r="5" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A5" s="292" t="s">
+      <c r="A5" s="297" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="293" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="293"/>
-      <c r="D5" s="294" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="294"/>
-      <c r="F5" s="295" t="s">
+      <c r="B5" s="298" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="298"/>
+      <c r="D5" s="299" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="299"/>
+      <c r="F5" s="300" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="295"/>
+      <c r="G5" s="300"/>
       <c r="H5" s="166"/>
       <c r="I5" s="166"/>
-      <c r="J5" s="296" t="s">
+      <c r="J5" s="295" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="296"/>
-      <c r="L5" s="296"/>
+      <c r="K5" s="295"/>
+      <c r="L5" s="295"/>
     </row>
     <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="292"/>
+      <c r="A6" s="297"/>
       <c r="B6" s="167" t="s">
         <v>48</v>
       </c>
@@ -5821,10 +5907,13 @@
         <v>84</v>
       </c>
       <c r="I7" s="163"/>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="174" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8" s="175">
         <v>1</v>
@@ -5832,7 +5921,9 @@
       <c r="C8" s="176">
         <v>3</v>
       </c>
-      <c r="D8" s="177"/>
+      <c r="D8" s="177">
+        <v>1</v>
+      </c>
       <c r="E8" s="176">
         <v>3</v>
       </c>
@@ -5842,10 +5933,13 @@
       </c>
       <c r="H8" s="179"/>
       <c r="I8" s="179"/>
+      <c r="K8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="60">
       <c r="A9" s="174" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B9" s="180">
         <v>1</v>
@@ -5853,7 +5947,9 @@
       <c r="C9" s="181">
         <v>2</v>
       </c>
-      <c r="D9" s="182"/>
+      <c r="D9" s="182">
+        <v>1</v>
+      </c>
       <c r="E9" s="181">
         <v>2</v>
       </c>
@@ -5863,10 +5959,13 @@
       </c>
       <c r="H9" s="179"/>
       <c r="I9" s="179"/>
+      <c r="K9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="10" spans="1:13" ht="60">
       <c r="A10" s="184" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B10" s="180">
         <v>0.25</v>
@@ -5874,7 +5973,9 @@
       <c r="C10" s="181">
         <v>3</v>
       </c>
-      <c r="D10" s="182"/>
+      <c r="D10" s="182">
+        <v>0</v>
+      </c>
       <c r="E10" s="181">
         <v>3</v>
       </c>
@@ -5885,12 +5986,15 @@
       <c r="H10" s="179"/>
       <c r="I10" s="179"/>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="K10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="185" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B11" s="180">
         <v>0</v>
@@ -5898,7 +6002,9 @@
       <c r="C11" s="181">
         <v>2</v>
       </c>
-      <c r="D11" s="182"/>
+      <c r="D11" s="182">
+        <v>0</v>
+      </c>
       <c r="E11" s="181">
         <v>2</v>
       </c>
@@ -5909,12 +6015,15 @@
       <c r="H11" s="179"/>
       <c r="I11" s="179"/>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>92</v>
+      </c>
+      <c r="K11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="30">
       <c r="A12" s="186" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B12" s="180">
         <v>0</v>
@@ -5922,7 +6031,9 @@
       <c r="C12" s="181">
         <v>4</v>
       </c>
-      <c r="D12" s="182"/>
+      <c r="D12" s="182">
+        <v>0</v>
+      </c>
       <c r="E12" s="181">
         <v>4</v>
       </c>
@@ -5933,12 +6044,15 @@
       <c r="H12" s="179"/>
       <c r="I12" s="179"/>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>95</v>
+      </c>
+      <c r="K12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="187" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B13" s="188">
         <f>SUMPRODUCT(B8:B12,C8:C12)</f>
@@ -5950,7 +6064,7 @@
       </c>
       <c r="D13" s="190">
         <f>SUMPRODUCT(D8:D12,E8:E12)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13" s="191">
         <f>SUM(E8:E12)</f>
@@ -5966,10 +6080,13 @@
       </c>
       <c r="H13" s="179"/>
       <c r="I13" s="179"/>
+      <c r="K13" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="18.399999999999999" customHeight="1">
       <c r="A14" s="291" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B14" s="291"/>
       <c r="C14" s="291"/>
@@ -5978,13 +6095,16 @@
       <c r="F14" s="291"/>
       <c r="G14" s="291"/>
       <c r="H14" s="163" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="I14" s="163"/>
+      <c r="K14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="45">
       <c r="A15" s="184" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B15" s="194">
         <v>1</v>
@@ -5992,7 +6112,9 @@
       <c r="C15" s="195">
         <v>2</v>
       </c>
-      <c r="D15" s="196"/>
+      <c r="D15" s="196">
+        <v>1</v>
+      </c>
       <c r="E15" s="195">
         <v>2</v>
       </c>
@@ -6002,10 +6124,13 @@
       </c>
       <c r="H15" s="198"/>
       <c r="I15" s="179"/>
+      <c r="K15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="30">
       <c r="A16" s="184" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B16" s="199">
         <v>1</v>
@@ -6013,7 +6138,9 @@
       <c r="C16" s="200">
         <v>3</v>
       </c>
-      <c r="D16" s="201"/>
+      <c r="D16" s="201">
+        <v>0</v>
+      </c>
       <c r="E16" s="200">
         <v>3</v>
       </c>
@@ -6023,10 +6150,13 @@
       </c>
       <c r="H16" s="198"/>
       <c r="I16" s="179"/>
-    </row>
-    <row r="17" spans="1:10" ht="45">
+      <c r="K16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="75">
       <c r="A17" s="203" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B17" s="180">
         <v>1</v>
@@ -6034,7 +6164,9 @@
       <c r="C17" s="200">
         <v>3</v>
       </c>
-      <c r="D17" s="204"/>
+      <c r="D17" s="204">
+        <v>0</v>
+      </c>
       <c r="E17" s="200">
         <v>3</v>
       </c>
@@ -6044,10 +6176,13 @@
       </c>
       <c r="H17" s="198"/>
       <c r="I17" s="179"/>
-    </row>
-    <row r="18" spans="1:10" ht="30">
+      <c r="K17" s="283" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30">
       <c r="A18" s="203" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B18" s="180">
         <v>1</v>
@@ -6055,7 +6190,9 @@
       <c r="C18" s="200">
         <v>3</v>
       </c>
-      <c r="D18" s="204"/>
+      <c r="D18" s="204">
+        <v>1</v>
+      </c>
       <c r="E18" s="200">
         <v>3</v>
       </c>
@@ -6065,18 +6202,23 @@
       </c>
       <c r="H18" s="198"/>
       <c r="I18" s="179"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="206" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B19" s="207">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C19" s="200">
         <v>2</v>
       </c>
-      <c r="D19" s="208"/>
+      <c r="D19" s="208">
+        <v>0</v>
+      </c>
       <c r="E19" s="200">
         <v>2</v>
       </c>
@@ -6087,16 +6229,19 @@
       <c r="H19" s="198"/>
       <c r="I19" s="179"/>
       <c r="J19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="K19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="209" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B20" s="188">
         <f>SUMPRODUCT(B15:B19,C15:C19)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="189">
         <f>SUM(C15:C19)</f>
@@ -6104,7 +6249,7 @@
       </c>
       <c r="D20" s="210">
         <f>SUMPRODUCT(D15:D19,E15:E19)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E20" s="211">
         <f>SUM(E15:E19)</f>
@@ -6120,10 +6265,13 @@
       </c>
       <c r="H20" s="198"/>
       <c r="I20" s="179"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.399999999999999" customHeight="1">
+      <c r="K20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="18.399999999999999" customHeight="1">
       <c r="A21" s="291" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B21" s="291"/>
       <c r="C21" s="291"/>
@@ -6132,13 +6280,16 @@
       <c r="F21" s="291"/>
       <c r="G21" s="291"/>
       <c r="H21" s="163" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="I21" s="163"/>
-    </row>
-    <row r="22" spans="1:10" ht="75">
+      <c r="K21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="75">
       <c r="A22" s="185" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B22" s="180">
         <v>1</v>
@@ -6146,7 +6297,9 @@
       <c r="C22" s="200">
         <v>2</v>
       </c>
-      <c r="D22" s="182"/>
+      <c r="D22" s="182">
+        <v>1</v>
+      </c>
       <c r="E22" s="200">
         <v>2</v>
       </c>
@@ -6156,10 +6309,13 @@
       </c>
       <c r="H22" s="198"/>
       <c r="I22" s="179"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="186" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B23" s="180">
         <v>1</v>
@@ -6167,7 +6323,9 @@
       <c r="C23" s="181">
         <v>1</v>
       </c>
-      <c r="D23" s="182"/>
+      <c r="D23" s="182">
+        <v>1</v>
+      </c>
       <c r="E23" s="181">
         <v>1</v>
       </c>
@@ -6177,10 +6335,13 @@
       </c>
       <c r="H23" s="198"/>
       <c r="I23" s="179"/>
-    </row>
-    <row r="24" spans="1:10" ht="30">
+      <c r="K23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30">
       <c r="A24" s="186" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B24" s="180">
         <v>1</v>
@@ -6188,7 +6349,9 @@
       <c r="C24" s="181">
         <v>1</v>
       </c>
-      <c r="D24" s="182"/>
+      <c r="D24" s="182">
+        <v>1</v>
+      </c>
       <c r="E24" s="181">
         <v>1</v>
       </c>
@@ -6198,10 +6361,13 @@
       </c>
       <c r="H24" s="198"/>
       <c r="I24" s="179"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="187" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B25" s="188">
         <f>SUMPRODUCT(B22:B24,C22:C24)</f>
@@ -6213,7 +6379,7 @@
       </c>
       <c r="D25" s="190">
         <f>SUMPRODUCT(D22:D24,E22:E24)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E25" s="191">
         <f>SUM(E22:E24)</f>
@@ -6229,10 +6395,13 @@
       </c>
       <c r="H25" s="198"/>
       <c r="I25" s="179"/>
-    </row>
-    <row r="26" spans="1:10" ht="18.399999999999999" customHeight="1">
+      <c r="K25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="18.399999999999999" customHeight="1">
       <c r="A26" s="291" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B26" s="291"/>
       <c r="C26" s="291"/>
@@ -6241,13 +6410,16 @@
       <c r="F26" s="291"/>
       <c r="G26" s="291"/>
       <c r="H26" s="163" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="I26" s="163"/>
-    </row>
-    <row r="27" spans="1:10" ht="60">
+      <c r="K26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="60">
       <c r="A27" s="206" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B27" s="213">
         <v>0</v>
@@ -6255,7 +6427,9 @@
       <c r="C27" s="214">
         <v>2</v>
       </c>
-      <c r="D27" s="204"/>
+      <c r="D27" s="204">
+        <v>0.5</v>
+      </c>
       <c r="E27" s="214">
         <v>2</v>
       </c>
@@ -6266,12 +6440,15 @@
       <c r="H27" s="198"/>
       <c r="I27" s="179"/>
       <c r="J27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="45">
+        <v>114</v>
+      </c>
+      <c r="K27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="45">
       <c r="A28" s="206" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B28" s="180">
         <v>1</v>
@@ -6279,7 +6456,9 @@
       <c r="C28" s="181">
         <v>2</v>
       </c>
-      <c r="D28" s="204"/>
+      <c r="D28" s="204">
+        <v>1</v>
+      </c>
       <c r="E28" s="181">
         <v>2</v>
       </c>
@@ -6289,10 +6468,13 @@
       </c>
       <c r="H28" s="198"/>
       <c r="I28" s="179"/>
-    </row>
-    <row r="29" spans="1:10" ht="30">
+      <c r="K28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30">
       <c r="A29" s="206" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B29" s="180">
         <v>1</v>
@@ -6300,7 +6482,9 @@
       <c r="C29" s="181">
         <v>2</v>
       </c>
-      <c r="D29" s="204"/>
+      <c r="D29" s="204">
+        <v>1</v>
+      </c>
       <c r="E29" s="181">
         <v>2</v>
       </c>
@@ -6310,10 +6494,13 @@
       </c>
       <c r="H29" s="198"/>
       <c r="I29" s="179"/>
-    </row>
-    <row r="30" spans="1:10" ht="75">
+      <c r="K29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="75">
       <c r="A30" s="206" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B30" s="180">
         <v>0</v>
@@ -6321,7 +6508,9 @@
       <c r="C30" s="181">
         <v>3</v>
       </c>
-      <c r="D30" s="204"/>
+      <c r="D30" s="204">
+        <v>0</v>
+      </c>
       <c r="E30" s="181">
         <v>3</v>
       </c>
@@ -6332,12 +6521,15 @@
       <c r="H30" s="198"/>
       <c r="I30" s="179"/>
       <c r="J30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>119</v>
+      </c>
+      <c r="K30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="209" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B31" s="188">
         <f>SUMPRODUCT(B27:B30,C27:C30)</f>
@@ -6349,7 +6541,7 @@
       </c>
       <c r="D31" s="210">
         <f>SUMPRODUCT(D27:D30,E27:E30)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31" s="191">
         <f>SUM(E27:E30)</f>
@@ -6365,10 +6557,13 @@
       </c>
       <c r="H31" s="198"/>
       <c r="I31" s="179"/>
-    </row>
-    <row r="32" spans="1:10" ht="18.399999999999999" customHeight="1">
+      <c r="K31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="18.399999999999999" customHeight="1">
       <c r="A32" s="291" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B32" s="291"/>
       <c r="C32" s="291"/>
@@ -6377,13 +6572,16 @@
       <c r="F32" s="291"/>
       <c r="G32" s="291"/>
       <c r="H32" s="163" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="I32" s="163"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="184" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B33" s="213">
         <v>1</v>
@@ -6391,7 +6589,9 @@
       <c r="C33" s="214">
         <v>1</v>
       </c>
-      <c r="D33" s="216"/>
+      <c r="D33" s="216">
+        <v>0.75</v>
+      </c>
       <c r="E33" s="214">
         <v>1</v>
       </c>
@@ -6401,10 +6601,13 @@
       </c>
       <c r="H33" s="198"/>
       <c r="I33" s="179"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="184" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="B34" s="180">
         <v>1</v>
@@ -6412,7 +6615,9 @@
       <c r="C34" s="200">
         <v>1</v>
       </c>
-      <c r="D34" s="204"/>
+      <c r="D34" s="204">
+        <v>1</v>
+      </c>
       <c r="E34" s="200">
         <v>1</v>
       </c>
@@ -6422,10 +6627,13 @@
       </c>
       <c r="H34" s="198"/>
       <c r="I34" s="179"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="203" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B35" s="180">
         <v>1</v>
@@ -6433,7 +6641,9 @@
       <c r="C35" s="200">
         <v>3</v>
       </c>
-      <c r="D35" s="204"/>
+      <c r="D35" s="204">
+        <v>0.75</v>
+      </c>
       <c r="E35" s="200">
         <v>3</v>
       </c>
@@ -6443,18 +6653,23 @@
       </c>
       <c r="H35" s="198"/>
       <c r="I35" s="179"/>
-    </row>
-    <row r="36" spans="1:10" ht="30">
+      <c r="K35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="30">
       <c r="A36" s="206" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B36" s="180">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C36" s="181">
         <v>3</v>
       </c>
-      <c r="D36" s="204"/>
+      <c r="D36" s="204">
+        <v>0.25</v>
+      </c>
       <c r="E36" s="181">
         <v>3</v>
       </c>
@@ -6465,16 +6680,19 @@
       <c r="H36" s="179"/>
       <c r="I36" s="179"/>
       <c r="J36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>128</v>
+      </c>
+      <c r="K36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="209" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B37" s="219">
         <f>SUMPRODUCT(B33:B36,C33:C36)</f>
-        <v>6.5</v>
+        <v>7.25</v>
       </c>
       <c r="C37" s="189">
         <f>SUM(C33:C36)</f>
@@ -6482,7 +6700,7 @@
       </c>
       <c r="D37" s="220">
         <f>SUMPRODUCT(D33:D36,E33:E36)</f>
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="E37" s="191">
         <f>SUM(E33:E36)</f>
@@ -6498,10 +6716,13 @@
       </c>
       <c r="H37" s="198"/>
       <c r="I37" s="179"/>
-    </row>
-    <row r="38" spans="1:10" ht="18.399999999999999" customHeight="1">
+      <c r="K37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="18.399999999999999" customHeight="1">
       <c r="A38" s="291" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B38" s="291"/>
       <c r="C38" s="291"/>
@@ -6509,14 +6730,14 @@
       <c r="E38" s="291"/>
       <c r="F38" s="291"/>
       <c r="G38" s="291"/>
-      <c r="H38" s="283" t="s">
-        <v>120</v>
+      <c r="H38" s="282" t="s">
+        <v>131</v>
       </c>
       <c r="I38" s="163"/>
     </row>
-    <row r="39" spans="1:10" ht="45">
+    <row r="39" spans="1:11" ht="45">
       <c r="A39" s="203" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B39" s="213">
         <v>1</v>
@@ -6524,7 +6745,9 @@
       <c r="C39" s="195">
         <v>1</v>
       </c>
-      <c r="D39" s="204"/>
+      <c r="D39" s="204">
+        <v>1</v>
+      </c>
       <c r="E39" s="195">
         <v>1</v>
       </c>
@@ -6535,9 +6758,9 @@
       <c r="H39" s="179"/>
       <c r="I39" s="179"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11">
       <c r="A40" s="203" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B40" s="180">
         <v>1</v>
@@ -6545,7 +6768,9 @@
       <c r="C40" s="200">
         <v>4</v>
       </c>
-      <c r="D40" s="204"/>
+      <c r="D40" s="204">
+        <v>1</v>
+      </c>
       <c r="E40" s="200">
         <v>4</v>
       </c>
@@ -6556,9 +6781,9 @@
       <c r="H40" s="179"/>
       <c r="I40" s="179"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:11">
       <c r="A41" s="203" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B41" s="180">
         <v>1</v>
@@ -6566,7 +6791,9 @@
       <c r="C41" s="200">
         <v>3</v>
       </c>
-      <c r="D41" s="204"/>
+      <c r="D41" s="204">
+        <v>1</v>
+      </c>
       <c r="E41" s="200">
         <v>3</v>
       </c>
@@ -6577,9 +6804,9 @@
       <c r="H41" s="179"/>
       <c r="I41" s="179"/>
     </row>
-    <row r="42" spans="1:10" ht="60">
+    <row r="42" spans="1:11" ht="60">
       <c r="A42" s="203" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B42" s="180">
         <v>1</v>
@@ -6587,7 +6814,9 @@
       <c r="C42" s="200">
         <v>2</v>
       </c>
-      <c r="D42" s="204"/>
+      <c r="D42" s="204">
+        <v>1</v>
+      </c>
       <c r="E42" s="200">
         <v>2</v>
       </c>
@@ -6597,9 +6826,9 @@
       </c>
       <c r="H42" s="179"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:11">
       <c r="A43" s="203" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B43" s="180">
         <v>1</v>
@@ -6607,7 +6836,9 @@
       <c r="C43" s="200">
         <v>2</v>
       </c>
-      <c r="D43" s="204"/>
+      <c r="D43" s="204">
+        <v>1</v>
+      </c>
       <c r="E43" s="200">
         <v>2</v>
       </c>
@@ -6618,9 +6849,9 @@
       <c r="H43" s="179"/>
       <c r="I43" s="179"/>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:11">
       <c r="A44" s="203" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B44" s="180">
         <v>1</v>
@@ -6628,7 +6859,9 @@
       <c r="C44" s="200">
         <v>3</v>
       </c>
-      <c r="D44" s="204"/>
+      <c r="D44" s="204">
+        <v>1</v>
+      </c>
       <c r="E44" s="200">
         <v>3</v>
       </c>
@@ -6639,9 +6872,9 @@
       <c r="H44" s="179"/>
       <c r="I44" s="179"/>
     </row>
-    <row r="45" spans="1:10" ht="30">
+    <row r="45" spans="1:11" ht="30">
       <c r="A45" s="203" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B45" s="180">
         <v>1</v>
@@ -6649,7 +6882,9 @@
       <c r="C45" s="200">
         <v>3</v>
       </c>
-      <c r="D45" s="204"/>
+      <c r="D45" s="204">
+        <v>1</v>
+      </c>
       <c r="E45" s="200">
         <v>3</v>
       </c>
@@ -6660,9 +6895,9 @@
       <c r="H45" s="179"/>
       <c r="I45" s="179"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:11">
       <c r="A46" s="203" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B46" s="180">
         <v>1</v>
@@ -6670,7 +6905,9 @@
       <c r="C46" s="200">
         <v>4</v>
       </c>
-      <c r="D46" s="204"/>
+      <c r="D46" s="204">
+        <v>0.5</v>
+      </c>
       <c r="E46" s="200">
         <v>4</v>
       </c>
@@ -6680,10 +6917,13 @@
       </c>
       <c r="H46" s="179"/>
       <c r="I46" s="179"/>
-    </row>
-    <row r="47" spans="1:10" ht="60">
+      <c r="K46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="60">
       <c r="A47" s="206" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B47" s="207">
         <v>1</v>
@@ -6691,7 +6931,9 @@
       <c r="C47" s="181">
         <v>10</v>
       </c>
-      <c r="D47" s="204"/>
+      <c r="D47" s="204">
+        <v>1</v>
+      </c>
       <c r="E47" s="181">
         <v>10</v>
       </c>
@@ -6702,9 +6944,9 @@
       <c r="H47" s="179"/>
       <c r="I47" s="179"/>
     </row>
-    <row r="48" spans="1:10" ht="30">
+    <row r="48" spans="1:11" ht="30">
       <c r="A48" s="206" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B48" s="180">
         <v>0.5</v>
@@ -6712,7 +6954,9 @@
       <c r="C48" s="181">
         <v>6</v>
       </c>
-      <c r="D48" s="204"/>
+      <c r="D48" s="204">
+        <v>0</v>
+      </c>
       <c r="E48" s="181">
         <v>6</v>
       </c>
@@ -6723,12 +6967,15 @@
       <c r="H48" s="179"/>
       <c r="I48" s="179"/>
       <c r="J48" t="s">
-        <v>131</v>
+        <v>143</v>
+      </c>
+      <c r="K48" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="206" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="B49" s="180">
         <v>1</v>
@@ -6736,7 +6983,9 @@
       <c r="C49" s="181">
         <v>3</v>
       </c>
-      <c r="D49" s="204"/>
+      <c r="D49" s="204">
+        <v>1</v>
+      </c>
       <c r="E49" s="181">
         <v>3</v>
       </c>
@@ -6749,7 +6998,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="209" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B50" s="219">
         <f>SUMPRODUCT(B39:B49,C39:C49)</f>
@@ -6761,7 +7010,7 @@
       </c>
       <c r="D50" s="220">
         <f>SUMPRODUCT(D39:D49,E39:E49)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E50" s="191">
         <f>SUM(E39:E49)</f>
@@ -6780,7 +7029,7 @@
     </row>
     <row r="51" spans="1:10" ht="18.399999999999999" customHeight="1">
       <c r="A51" s="291" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="B51" s="291"/>
       <c r="C51" s="291"/>
@@ -6788,14 +7037,14 @@
       <c r="E51" s="291"/>
       <c r="F51" s="291"/>
       <c r="G51" s="291"/>
-      <c r="H51" s="283" t="s">
-        <v>120</v>
+      <c r="H51" s="282" t="s">
+        <v>131</v>
       </c>
       <c r="I51" s="163"/>
     </row>
     <row r="52" spans="1:10" ht="30">
       <c r="A52" s="221" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B52" s="213">
         <v>1</v>
@@ -6803,7 +7052,9 @@
       <c r="C52" s="222">
         <v>2</v>
       </c>
-      <c r="D52" s="223"/>
+      <c r="D52" s="223">
+        <v>1</v>
+      </c>
       <c r="E52" s="222">
         <v>2</v>
       </c>
@@ -6816,7 +7067,7 @@
     </row>
     <row r="53" spans="1:10" ht="30">
       <c r="A53" s="186" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B53" s="224">
         <v>1</v>
@@ -6824,7 +7075,9 @@
       <c r="C53" s="181">
         <v>2</v>
       </c>
-      <c r="D53" s="225"/>
+      <c r="D53" s="225">
+        <v>0.5</v>
+      </c>
       <c r="E53" s="181">
         <v>2</v>
       </c>
@@ -6837,7 +7090,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="186" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="B54" s="226">
         <v>0</v>
@@ -6845,7 +7098,9 @@
       <c r="C54" s="181">
         <v>1</v>
       </c>
-      <c r="D54" s="204"/>
+      <c r="D54" s="204">
+        <v>1</v>
+      </c>
       <c r="E54" s="181">
         <v>1</v>
       </c>
@@ -6856,12 +7111,12 @@
       <c r="H54" s="179"/>
       <c r="I54" s="179"/>
       <c r="J54" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="120">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="135">
       <c r="A55" s="186" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B55" s="226">
         <v>0</v>
@@ -6869,7 +7124,9 @@
       <c r="C55" s="181">
         <v>4</v>
       </c>
-      <c r="D55" s="204"/>
+      <c r="D55" s="204">
+        <v>1</v>
+      </c>
       <c r="E55" s="181">
         <v>4</v>
       </c>
@@ -6880,12 +7137,12 @@
       <c r="H55" s="179"/>
       <c r="I55" s="179"/>
       <c r="J55" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="45">
       <c r="A56" s="185" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="B56" s="207">
         <v>1</v>
@@ -6893,20 +7150,22 @@
       <c r="C56" s="200">
         <v>2</v>
       </c>
-      <c r="D56" s="227"/>
+      <c r="D56" s="284">
+        <v>1</v>
+      </c>
       <c r="E56" s="200">
         <v>2</v>
       </c>
-      <c r="F56" s="228"/>
+      <c r="F56" s="227"/>
       <c r="G56" s="200">
         <v>2</v>
       </c>
-      <c r="H56" s="229"/>
+      <c r="H56" s="228"/>
       <c r="I56" s="179"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="230" t="s">
-        <v>93</v>
+      <c r="A57" s="229" t="s">
+        <v>97</v>
       </c>
       <c r="B57" s="188">
         <f>SUMPRODUCT(B52:B56,C52:C56)</f>
@@ -6918,17 +7177,17 @@
       </c>
       <c r="D57" s="190">
         <f>SUMPRODUCT(D52:D56,E52:E56)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E57" s="191">
         <f>SUM(E52:E56)</f>
         <v>11</v>
       </c>
-      <c r="F57" s="231">
+      <c r="F57" s="230">
         <f>SUMPRODUCT(F52:F56,G52:G56)</f>
         <v>0</v>
       </c>
-      <c r="G57" s="232">
+      <c r="G57" s="231">
         <f>SUM(G52:G56)</f>
         <v>11</v>
       </c>
@@ -6949,60 +7208,71 @@
       <c r="I58" s="163"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="233" t="s">
-        <v>141</v>
-      </c>
-      <c r="B59" s="234">
+      <c r="A59" s="232" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="233">
         <f t="shared" ref="B59:G59" si="0">B13+B20+B25+B31+B37+B50+B57</f>
-        <v>75.25</v>
+        <v>77</v>
       </c>
       <c r="C59" s="195">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D59" s="235">
+      <c r="D59" s="234">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="236">
+        <v>66.75</v>
+      </c>
+      <c r="E59" s="235">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F59" s="237">
+      <c r="F59" s="236">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G59" s="238">
+      <c r="G59" s="237">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H59" s="229"/>
+      <c r="H59" s="228"/>
       <c r="I59" s="179"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="233" t="s">
-        <v>142</v>
-      </c>
-      <c r="B60" s="297">
+      <c r="A60" s="232" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="292">
         <f>B59/C59</f>
-        <v>0.75249999999999995</v>
-      </c>
-      <c r="C60" s="297"/>
-      <c r="D60" s="298">
+        <v>0.77</v>
+      </c>
+      <c r="C60" s="292"/>
+      <c r="D60" s="293">
         <f>D59/E59</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="298"/>
-      <c r="F60" s="299">
+        <v>0.66749999999999998</v>
+      </c>
+      <c r="E60" s="293"/>
+      <c r="F60" s="294">
         <f>F59/G59</f>
         <v>0</v>
       </c>
-      <c r="G60" s="299"/>
-      <c r="H60" s="239"/>
-      <c r="I60" s="239"/>
+      <c r="G60" s="294"/>
+      <c r="H60" s="238"/>
+      <c r="I60" s="238"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A38:G38"/>
     <mergeCell ref="A51:G51"/>
@@ -7010,17 +7280,6 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="F60:G60"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 H20 H25 H31 H37 H50" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -7041,8 +7300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="G8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G18"/>
+    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7055,833 +7314,898 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75">
-      <c r="A1" s="304" t="s">
+      <c r="A1" s="305" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="304"/>
-      <c r="C1" s="304"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="305"/>
+      <c r="E1" s="305"/>
+      <c r="F1" s="305"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="144"/>
       <c r="B2" s="144"/>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
       <c r="E2" s="144"/>
-      <c r="F2" s="240"/>
+      <c r="F2" s="239"/>
     </row>
     <row r="3" spans="1:7" ht="18.75">
-      <c r="A3" s="304" t="s">
+      <c r="A3" s="305" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="304"/>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="304"/>
+      <c r="B3" s="305"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="305"/>
+      <c r="E3" s="305"/>
+      <c r="F3" s="305"/>
     </row>
     <row r="5" spans="1:7" ht="23.25">
-      <c r="A5" s="305" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="305"/>
-      <c r="C5" s="305"/>
-      <c r="D5" s="305"/>
-      <c r="E5" s="305"/>
-      <c r="F5" s="305"/>
+      <c r="A5" s="306" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="306"/>
+      <c r="C5" s="306"/>
+      <c r="D5" s="306"/>
+      <c r="E5" s="306"/>
+      <c r="F5" s="306"/>
       <c r="G5" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="241" t="s">
+      <c r="A6" s="240" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="306"/>
-      <c r="C6" s="306"/>
-      <c r="D6" s="306"/>
-      <c r="E6" s="306"/>
-      <c r="F6" s="306"/>
+      <c r="B6" s="307"/>
+      <c r="C6" s="307"/>
+      <c r="D6" s="307"/>
+      <c r="E6" s="307"/>
+      <c r="F6" s="307"/>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="242" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="243" t="s">
+      <c r="A7" s="241" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" s="242" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="243" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="243" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="243" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="244" t="s">
+      <c r="C7" s="242" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="242" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="242" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="243" t="s">
         <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="409.6">
-      <c r="A8" s="245" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="246">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="244" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="245">
         <f>12/21</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="C8" s="246">
-        <v>1</v>
-      </c>
-      <c r="D8" s="246">
+      <c r="C8" s="245">
+        <v>1</v>
+      </c>
+      <c r="D8" s="245">
         <v>16</v>
       </c>
-      <c r="E8" s="246">
+      <c r="E8" s="245">
         <f t="shared" ref="E8:E17" si="0">B8*C8*D8</f>
         <v>9.1428571428571423</v>
       </c>
-      <c r="F8" s="247" t="s">
-        <v>148</v>
+      <c r="F8" s="246" t="s">
+        <v>160</v>
       </c>
       <c r="G8" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="245" t="s">
-        <v>149</v>
-      </c>
-      <c r="B9" s="246">
-        <v>1</v>
-      </c>
-      <c r="C9" s="246">
-        <v>1</v>
-      </c>
-      <c r="D9" s="246">
+      <c r="A9" s="244" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" s="245">
+        <v>1</v>
+      </c>
+      <c r="C9" s="245">
+        <v>1</v>
+      </c>
+      <c r="D9" s="245">
         <v>8</v>
       </c>
-      <c r="E9" s="246">
+      <c r="E9" s="245">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F9" s="248"/>
+      <c r="F9" s="247"/>
       <c r="G9" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="245" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" s="246">
+      <c r="A10" s="244" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="245">
         <f>8/9</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="C10" s="246">
-        <v>1</v>
-      </c>
-      <c r="D10" s="246">
+      <c r="C10" s="245">
+        <v>1</v>
+      </c>
+      <c r="D10" s="245">
         <v>14</v>
       </c>
-      <c r="E10" s="246">
+      <c r="E10" s="245">
         <f t="shared" si="0"/>
         <v>12.444444444444443</v>
       </c>
-      <c r="F10" s="248" t="s">
-        <v>151</v>
+      <c r="F10" s="247" t="s">
+        <v>163</v>
       </c>
       <c r="G10" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="245" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="246">
+      <c r="A11" s="244" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="245">
         <f>11/13</f>
         <v>0.84615384615384615</v>
       </c>
-      <c r="C11" s="246">
-        <v>1</v>
-      </c>
-      <c r="D11" s="246">
+      <c r="C11" s="245">
+        <v>1</v>
+      </c>
+      <c r="D11" s="245">
         <v>12</v>
       </c>
-      <c r="E11" s="246">
+      <c r="E11" s="245">
         <f t="shared" si="0"/>
         <v>10.153846153846153</v>
       </c>
-      <c r="F11" s="248" t="s">
-        <v>153</v>
+      <c r="F11" s="247" t="s">
+        <v>165</v>
       </c>
       <c r="G11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="390">
-      <c r="A12" s="245" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="246">
-        <f>4/7</f>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="C12" s="246">
-        <v>1</v>
-      </c>
-      <c r="D12" s="246">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="244" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="245">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C12" s="245">
+        <v>1</v>
+      </c>
+      <c r="D12" s="245">
         <v>8</v>
       </c>
-      <c r="E12" s="246">
+      <c r="E12" s="245">
         <f t="shared" si="0"/>
-        <v>4.5714285714285712</v>
-      </c>
-      <c r="F12" s="247" t="s">
-        <v>155</v>
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="F12" s="246" t="s">
+        <v>167</v>
       </c>
       <c r="G12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="270">
-      <c r="A13" s="245" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="246">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="244" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="245">
         <f>8/10</f>
         <v>0.8</v>
       </c>
-      <c r="C13" s="246">
-        <v>1</v>
-      </c>
-      <c r="D13" s="246">
+      <c r="C13" s="245">
+        <v>1</v>
+      </c>
+      <c r="D13" s="245">
         <v>10</v>
       </c>
-      <c r="E13" s="246">
+      <c r="E13" s="245">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F13" s="247" t="s">
-        <v>157</v>
+      <c r="F13" s="246" t="s">
+        <v>169</v>
       </c>
       <c r="G13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="409.6">
-      <c r="A14" s="245" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="246">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30">
+      <c r="A14" s="244" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="245">
         <f>14/17</f>
         <v>0.82352941176470584</v>
       </c>
-      <c r="C14" s="246">
-        <v>1</v>
-      </c>
-      <c r="D14" s="246">
+      <c r="C14" s="245">
+        <v>1</v>
+      </c>
+      <c r="D14" s="245">
         <v>10</v>
       </c>
-      <c r="E14" s="246">
+      <c r="E14" s="245">
         <f t="shared" si="0"/>
         <v>8.235294117647058</v>
       </c>
-      <c r="F14" s="247" t="s">
-        <v>159</v>
+      <c r="F14" s="246" t="s">
+        <v>171</v>
       </c>
       <c r="G14" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="245" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" s="246">
+      <c r="A15" s="244" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="245">
         <f>15/15</f>
         <v>1</v>
       </c>
-      <c r="C15" s="246">
-        <v>1</v>
-      </c>
-      <c r="D15" s="246">
+      <c r="C15" s="245">
+        <v>1</v>
+      </c>
+      <c r="D15" s="245">
         <v>8</v>
       </c>
-      <c r="E15" s="246">
+      <c r="E15" s="245">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F15" s="247"/>
+      <c r="F15" s="246"/>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="245" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" s="246">
+      <c r="A16" s="244" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" s="245">
         <f>15/15</f>
         <v>1</v>
       </c>
-      <c r="C16" s="246">
-        <v>1</v>
-      </c>
-      <c r="D16" s="246">
+      <c r="C16" s="245">
+        <v>1</v>
+      </c>
+      <c r="D16" s="245">
         <v>8</v>
       </c>
-      <c r="E16" s="246">
+      <c r="E16" s="245">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F16" s="247"/>
+      <c r="F16" s="246"/>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="245" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="246">
+      <c r="A17" s="244" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="245">
         <f>9/10</f>
         <v>0.9</v>
       </c>
-      <c r="C17" s="246">
-        <v>1</v>
-      </c>
-      <c r="D17" s="246">
+      <c r="C17" s="245">
+        <v>1</v>
+      </c>
+      <c r="D17" s="245">
         <v>6</v>
       </c>
-      <c r="E17" s="246">
+      <c r="E17" s="245">
         <f t="shared" si="0"/>
         <v>5.4</v>
       </c>
-      <c r="F17" s="248" t="s">
-        <v>163</v>
+      <c r="F17" s="247" t="s">
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="249" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="307"/>
-      <c r="C18" s="307"/>
-      <c r="D18" s="284">
+      <c r="A18" s="248" t="s">
+        <v>176</v>
+      </c>
+      <c r="B18" s="308"/>
+      <c r="C18" s="308"/>
+      <c r="D18" s="285">
         <f>SUM(D8:D17)</f>
         <v>100</v>
       </c>
-      <c r="E18" s="250">
+      <c r="E18" s="249">
         <f>SUM(E8:E17)/D18 - E20*D20 - E19*D19</f>
-        <v>0.8194787043022338</v>
-      </c>
-      <c r="F18" s="251"/>
+        <v>0.83090727573080525</v>
+      </c>
+      <c r="F18" s="250"/>
       <c r="G18" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="252" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="253">
+      <c r="A19" s="251" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="252">
         <v>0.15</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="252" t="s">
-        <v>166</v>
-      </c>
-      <c r="D20" s="253">
+      <c r="A20" s="251" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="252">
         <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="23.25" customHeight="1">
-      <c r="A21" s="300" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="300"/>
-      <c r="C21" s="300"/>
-      <c r="D21" s="300"/>
-      <c r="E21" s="300"/>
-      <c r="F21" s="300"/>
+      <c r="A21" s="301" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="301"/>
+      <c r="C21" s="301"/>
+      <c r="D21" s="301"/>
+      <c r="E21" s="301"/>
+      <c r="F21" s="301"/>
+      <c r="G21" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="254" t="s">
+      <c r="A22" s="253" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="301"/>
-      <c r="C22" s="301"/>
-      <c r="D22" s="301"/>
-      <c r="E22" s="301"/>
-      <c r="F22" s="301"/>
+      <c r="B22" s="302"/>
+      <c r="C22" s="302"/>
+      <c r="D22" s="302"/>
+      <c r="E22" s="302"/>
+      <c r="F22" s="302"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="254" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="254" t="s">
+      <c r="A23" s="253" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="253" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="254" t="s">
-        <v>145</v>
-      </c>
-      <c r="D23" s="254" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="254" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="255" t="s">
+      <c r="C23" s="253" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="253" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="253" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="254" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A24" s="254" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="256"/>
-      <c r="C24" s="256"/>
-      <c r="D24" s="254">
+      <c r="A24" s="253" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="255">
+        <v>0.8</v>
+      </c>
+      <c r="C24" s="255">
+        <v>1</v>
+      </c>
+      <c r="D24" s="253">
         <v>8</v>
       </c>
-      <c r="E24" s="254">
+      <c r="E24" s="253">
         <f t="shared" ref="E24:E34" si="1">B24*C24*D24</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="255"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="254" t="s">
-        <v>168</v>
-      </c>
-      <c r="B25" s="256"/>
-      <c r="C25" s="256"/>
-      <c r="D25" s="254">
+        <v>6.4</v>
+      </c>
+      <c r="F24" s="254" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30">
+      <c r="A25" s="253" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="255">
+        <v>0.7</v>
+      </c>
+      <c r="C25" s="255">
+        <v>1</v>
+      </c>
+      <c r="D25" s="253">
         <v>16</v>
       </c>
-      <c r="E25" s="254">
+      <c r="E25" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="255"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="254" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" s="256"/>
-      <c r="C26" s="256"/>
-      <c r="D26" s="254">
+        <v>11.2</v>
+      </c>
+      <c r="F25" s="254" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45">
+      <c r="A26" s="253" t="s">
+        <v>184</v>
+      </c>
+      <c r="B26" s="255">
+        <v>0.7</v>
+      </c>
+      <c r="C26" s="255">
+        <v>1</v>
+      </c>
+      <c r="D26" s="253">
         <v>8</v>
       </c>
-      <c r="E26" s="254">
+      <c r="E26" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="255"/>
+        <v>5.6</v>
+      </c>
+      <c r="F26" s="254" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="254" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="256"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="254">
+      <c r="A27" s="253" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="255">
+        <v>0.9</v>
+      </c>
+      <c r="C27" s="255">
+        <v>1</v>
+      </c>
+      <c r="D27" s="253">
         <v>6</v>
       </c>
-      <c r="E27" s="254">
+      <c r="E27" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="255"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="254" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="256"/>
-      <c r="C28" s="256"/>
-      <c r="D28" s="254">
+        <v>5.4</v>
+      </c>
+      <c r="F27" s="254" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30">
+      <c r="A28" s="253" t="s">
+        <v>188</v>
+      </c>
+      <c r="B28" s="255">
+        <v>0.8</v>
+      </c>
+      <c r="C28" s="255">
+        <v>1</v>
+      </c>
+      <c r="D28" s="253">
         <v>8</v>
       </c>
-      <c r="E28" s="254">
+      <c r="E28" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="255"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="254" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="256"/>
-      <c r="C29" s="256"/>
-      <c r="D29" s="254">
+        <v>6.4</v>
+      </c>
+      <c r="F28" s="254" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45">
+      <c r="A29" s="253" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="255">
+        <v>0.7</v>
+      </c>
+      <c r="C29" s="255">
+        <v>1</v>
+      </c>
+      <c r="D29" s="253">
         <v>10</v>
       </c>
-      <c r="E29" s="254">
+      <c r="E29" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="255"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="254" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="256"/>
-      <c r="C30" s="256"/>
-      <c r="D30" s="254">
+        <v>7</v>
+      </c>
+      <c r="F29" s="254" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30">
+      <c r="A30" s="253" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="255">
+        <v>0.7</v>
+      </c>
+      <c r="C30" s="255">
+        <v>1</v>
+      </c>
+      <c r="D30" s="253">
         <v>8</v>
       </c>
-      <c r="E30" s="254">
+      <c r="E30" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="255"/>
+        <v>5.6</v>
+      </c>
+      <c r="F30" s="254" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="254" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" s="256"/>
-      <c r="C31" s="256"/>
-      <c r="D31" s="254">
+      <c r="A31" s="253" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="255">
+        <v>1</v>
+      </c>
+      <c r="C31" s="255">
+        <v>1</v>
+      </c>
+      <c r="D31" s="253">
         <v>8</v>
       </c>
-      <c r="E31" s="254">
+      <c r="E31" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="255"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="254" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" s="256"/>
-      <c r="C32" s="256"/>
-      <c r="D32" s="254">
         <v>8</v>
       </c>
-      <c r="E32" s="254">
+      <c r="F31" s="254"/>
+    </row>
+    <row r="32" spans="1:7" ht="45">
+      <c r="A32" s="253" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" s="255">
+        <v>0.6</v>
+      </c>
+      <c r="C32" s="255">
+        <v>1</v>
+      </c>
+      <c r="D32" s="253">
+        <v>8</v>
+      </c>
+      <c r="E32" s="253">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="255"/>
+        <v>4.8</v>
+      </c>
+      <c r="F32" s="254" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="254" t="s">
+      <c r="A33" s="253" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" s="255">
+        <v>1</v>
+      </c>
+      <c r="C33" s="255">
+        <v>1</v>
+      </c>
+      <c r="D33" s="253">
+        <v>8</v>
+      </c>
+      <c r="E33" s="253">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F33" s="254"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="253" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" s="255">
+        <v>0.8</v>
+      </c>
+      <c r="C34" s="255">
+        <v>1</v>
+      </c>
+      <c r="D34" s="253">
+        <v>12</v>
+      </c>
+      <c r="E34" s="253">
+        <f t="shared" si="1"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="F34" s="254" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="256" t="s">
         <v>176</v>
       </c>
-      <c r="B33" s="256"/>
-      <c r="C33" s="256"/>
-      <c r="D33" s="254">
-        <v>8</v>
-      </c>
-      <c r="E33" s="254">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="255"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="254" t="s">
-        <v>177</v>
-      </c>
-      <c r="B34" s="256"/>
-      <c r="C34" s="256"/>
-      <c r="D34" s="254">
-        <v>12</v>
-      </c>
-      <c r="E34" s="254">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="255"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="257" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35" s="257"/>
-      <c r="C35" s="258"/>
-      <c r="D35" s="258">
+      <c r="B35" s="256"/>
+      <c r="C35" s="257"/>
+      <c r="D35" s="257">
         <f>SUM(D24:D34)</f>
         <v>100</v>
       </c>
-      <c r="E35" s="259">
+      <c r="E35" s="258">
         <f>SUM(E24:E34)/D35 -E36*D36 -E37*D37-E38*D38</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="260"/>
+        <v>0.78</v>
+      </c>
+      <c r="F35" s="259"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="261" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="262"/>
-      <c r="D36" s="263">
+      <c r="A36" s="260" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="261"/>
+      <c r="D36" s="262">
         <v>0.15</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="261" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="264">
+      <c r="A37" s="260" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="263">
         <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="261" t="s">
-        <v>178</v>
-      </c>
-      <c r="D38" s="265">
+      <c r="A38" s="260" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38" s="264">
         <v>0.05</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="23.25">
-      <c r="A39" s="302" t="s">
+      <c r="A39" s="303" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="302"/>
-      <c r="C39" s="302"/>
-      <c r="D39" s="302"/>
-      <c r="E39" s="302"/>
-      <c r="F39" s="302"/>
+      <c r="B39" s="303"/>
+      <c r="C39" s="303"/>
+      <c r="D39" s="303"/>
+      <c r="E39" s="303"/>
+      <c r="F39" s="303"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="266" t="s">
+      <c r="A40" s="265" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="303"/>
-      <c r="C40" s="303"/>
-      <c r="D40" s="303"/>
-      <c r="E40" s="303"/>
-      <c r="F40" s="303"/>
+      <c r="B40" s="304"/>
+      <c r="C40" s="304"/>
+      <c r="D40" s="304"/>
+      <c r="E40" s="304"/>
+      <c r="F40" s="304"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="267" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="268" t="s">
+      <c r="A41" s="266" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="267" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="268" t="s">
-        <v>145</v>
-      </c>
-      <c r="D41" s="268" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="268" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="269" t="s">
+      <c r="C41" s="267" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41" s="267" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="267" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" s="268" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="270" t="s">
-        <v>179</v>
-      </c>
-      <c r="B42" s="271"/>
-      <c r="C42" s="271"/>
-      <c r="D42" s="271">
+      <c r="A42" s="269" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="270"/>
+      <c r="C42" s="270"/>
+      <c r="D42" s="270">
         <v>12</v>
       </c>
-      <c r="E42" s="271">
+      <c r="E42" s="270">
         <f t="shared" ref="E42:E51" si="2">B42*C42*D42</f>
         <v>0</v>
       </c>
-      <c r="F42" s="269"/>
+      <c r="F42" s="268"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="270" t="s">
-        <v>180</v>
-      </c>
-      <c r="B43" s="271"/>
-      <c r="C43" s="271"/>
-      <c r="D43" s="271">
+      <c r="A43" s="269" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="270"/>
+      <c r="C43" s="270"/>
+      <c r="D43" s="270">
         <v>16</v>
       </c>
-      <c r="E43" s="271">
+      <c r="E43" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F43" s="269"/>
+      <c r="F43" s="268"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="270" t="s">
-        <v>181</v>
-      </c>
-      <c r="B44" s="271"/>
-      <c r="C44" s="271"/>
-      <c r="D44" s="271">
+      <c r="A44" s="269" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" s="270"/>
+      <c r="C44" s="270"/>
+      <c r="D44" s="270">
         <v>8</v>
       </c>
-      <c r="E44" s="271">
+      <c r="E44" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F44" s="272"/>
+      <c r="F44" s="271"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="270" t="s">
-        <v>182</v>
-      </c>
-      <c r="B45" s="271"/>
-      <c r="C45" s="271"/>
-      <c r="D45" s="271">
+      <c r="A45" s="269" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="270"/>
+      <c r="C45" s="270"/>
+      <c r="D45" s="270">
         <v>12</v>
       </c>
-      <c r="E45" s="271">
+      <c r="E45" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F45" s="269"/>
+      <c r="F45" s="268"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="270" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" s="271"/>
-      <c r="C46" s="271"/>
-      <c r="D46" s="271">
+      <c r="A46" s="269" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" s="270"/>
+      <c r="C46" s="270"/>
+      <c r="D46" s="270">
         <v>10</v>
       </c>
-      <c r="E46" s="271">
+      <c r="E46" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F46" s="269"/>
+      <c r="F46" s="268"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="270" t="s">
-        <v>184</v>
-      </c>
-      <c r="B47" s="271"/>
-      <c r="C47" s="271"/>
-      <c r="D47" s="271">
+      <c r="A47" s="269" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" s="270"/>
+      <c r="C47" s="270"/>
+      <c r="D47" s="270">
         <v>14</v>
       </c>
-      <c r="E47" s="271">
+      <c r="E47" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F47" s="269"/>
+      <c r="F47" s="268"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="273" t="s">
-        <v>185</v>
-      </c>
-      <c r="B48" s="271"/>
-      <c r="C48" s="271"/>
-      <c r="D48" s="274">
+      <c r="A48" s="272" t="s">
+        <v>207</v>
+      </c>
+      <c r="B48" s="270"/>
+      <c r="C48" s="270"/>
+      <c r="D48" s="273">
         <v>6</v>
       </c>
-      <c r="E48" s="271">
+      <c r="E48" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F48" s="275"/>
+      <c r="F48" s="274"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="273" t="s">
-        <v>186</v>
-      </c>
-      <c r="B49" s="271"/>
-      <c r="C49" s="271"/>
-      <c r="D49" s="274">
+      <c r="A49" s="272" t="s">
+        <v>208</v>
+      </c>
+      <c r="B49" s="270"/>
+      <c r="C49" s="270"/>
+      <c r="D49" s="273">
         <v>8</v>
       </c>
-      <c r="E49" s="271">
+      <c r="E49" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F49" s="275"/>
+      <c r="F49" s="274"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="273" t="s">
-        <v>187</v>
-      </c>
-      <c r="B50" s="271"/>
-      <c r="C50" s="271"/>
-      <c r="D50" s="274">
+      <c r="A50" s="272" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="270"/>
+      <c r="C50" s="270"/>
+      <c r="D50" s="273">
         <v>6</v>
       </c>
-      <c r="E50" s="271">
+      <c r="E50" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F50" s="275"/>
+      <c r="F50" s="274"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="273" t="s">
-        <v>188</v>
-      </c>
-      <c r="B51" s="271"/>
-      <c r="C51" s="271"/>
-      <c r="D51" s="274">
+      <c r="A51" s="272" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" s="270"/>
+      <c r="C51" s="270"/>
+      <c r="D51" s="273">
         <v>8</v>
       </c>
-      <c r="E51" s="271">
+      <c r="E51" s="270">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F51" s="275"/>
+      <c r="F51" s="274"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="276" t="s">
-        <v>164</v>
-      </c>
-      <c r="B52" s="277"/>
-      <c r="C52" s="277"/>
-      <c r="D52" s="278">
+      <c r="A52" s="275" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="276"/>
+      <c r="C52" s="276"/>
+      <c r="D52" s="277">
         <f>SUM(D42:D51)</f>
         <v>100</v>
       </c>
-      <c r="E52" s="279">
+      <c r="E52" s="278">
         <f>SUM(E42:E51)/D52 - D53*E53  - D54*E54 - D55*E55</f>
         <v>0</v>
       </c>
-      <c r="F52" s="280"/>
+      <c r="F52" s="279"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="281" t="s">
-        <v>165</v>
-      </c>
-      <c r="D53" s="264">
+      <c r="A53" s="280" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" s="263">
         <v>0.15</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="281" t="s">
-        <v>166</v>
-      </c>
-      <c r="D54" s="264">
+      <c r="A54" s="280" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="263">
         <v>0.2</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="282" t="s">
-        <v>178</v>
-      </c>
-      <c r="D55" s="265">
+      <c r="A55" s="281" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55" s="264">
         <v>0.05</v>
       </c>
     </row>
@@ -7951,7 +8275,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="288" t="s">
+      <c r="G2" s="289" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7964,11 +8288,11 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="288"/>
+      <c r="G3" s="289"/>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="58" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60"/>
@@ -7994,7 +8318,7 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="65" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67"/>
@@ -8007,7 +8331,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="65" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
@@ -8020,7 +8344,7 @@
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="65" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="67"/>
@@ -8033,7 +8357,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="65" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
@@ -8046,7 +8370,7 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="65" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
@@ -8059,7 +8383,7 @@
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="65" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
@@ -8072,7 +8396,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="65" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
@@ -8085,7 +8409,7 @@
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="65" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
@@ -8098,7 +8422,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="65" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
@@ -8111,7 +8435,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="65" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
@@ -8124,7 +8448,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="65" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -8137,7 +8461,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="65" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="67"/>
@@ -8150,7 +8474,7 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="65" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
@@ -8163,7 +8487,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="65" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
@@ -8176,7 +8500,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="65" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="B20" s="66"/>
       <c r="C20" s="67"/>
@@ -8189,7 +8513,7 @@
     </row>
     <row r="21" spans="1:7" ht="45">
       <c r="A21" s="65" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="B21" s="66"/>
       <c r="C21" s="67"/>
@@ -8202,7 +8526,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="65" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="67"/>
@@ -8215,7 +8539,7 @@
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="A23" s="65" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67"/>
@@ -8228,7 +8552,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="65" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="B24" s="66"/>
       <c r="C24" s="67"/>
@@ -8241,7 +8565,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="65" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="B25" s="66"/>
       <c r="C25" s="67"/>
@@ -8254,7 +8578,7 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="65" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
@@ -8267,7 +8591,7 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="72" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="B27" s="73"/>
       <c r="C27" s="74"/>
@@ -8364,10 +8688,10 @@
       <c r="D33" s="162"/>
       <c r="E33" s="162"/>
       <c r="F33" s="162"/>
-      <c r="H33" s="289" t="s">
+      <c r="H33" s="290" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="289"/>
+      <c r="I33" s="290"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="52" t="s">
@@ -8616,7 +8940,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="91" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="B50" s="138">
         <f>(B$31+B$47)/2</f>
